--- a/Circuit/DD_DC_discontinous mode calculator.xlsx
+++ b/Circuit/DD_DC_discontinous mode calculator.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nRF51_BLE_nucleometer\Circuit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SesProj\Circuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="18228" windowHeight="9396"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="18225" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>primary source Wiki</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>IL overrage</t>
+  </si>
+  <si>
+    <t>uS</t>
+  </si>
+  <si>
+    <t>uH</t>
+  </si>
+  <si>
+    <t>uA</t>
   </si>
 </sst>
 </file>
@@ -133,10 +142,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -418,169 +428,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0.25</v>
+      <c r="B4" s="3">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <v>1.2E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <f>B4*B5</f>
-        <v>3.0000000000000001E-6</v>
+        <v>4.0000000000000007E-6</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="3">
+        <f>B6*1000000</f>
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <f>B4-B6</f>
-        <v>0.249997</v>
+        <v>4.9960000000000004E-3</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>5.0000000000000002E-5</v>
+      <c r="B8" s="3">
+        <v>1.3200000000000001E-4</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="3">
+        <f>B8*1000000</f>
+        <v>132</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2">
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="3">
+        <f>B9*1000000</f>
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <f>B3*B5*B4/B8</f>
-        <v>0.18</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <f>B12*B5/2</f>
-        <v>1.08E-6</v>
+        <v>3.6363636363636364E-5</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="3">
+        <f>B14*1000000</f>
+        <v>36.363636363636367</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <f>B3*(B14+B9)</f>
-        <v>3.5400000000000004E-6</v>
+        <v>1.1209090909090908E-4</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <f>B3*(1+B3*(B5^2)*B4/2/B8/B9)</f>
-        <v>35.400000000000006</v>
+        <v>112.09090909090909</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <f>B17*B9</f>
-        <v>3.5400000000000004E-6</v>
+        <v>1.1209090909090908E-4</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -591,5 +630,6 @@
     <hyperlink ref="A1" r:id="rId1" location="Discontinuous_mode"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>